--- a/Documentation/TimeSheets/week12/Huy Nguyen Week 12Timesheet .xlsx
+++ b/Documentation/TimeSheets/week12/Huy Nguyen Week 12Timesheet .xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>9:00PM</t>
+  </si>
+  <si>
+    <t>Coding: Update color code and make auto surveing stable</t>
+  </si>
+  <si>
+    <t>Coding: Add live mode stautus label and update mock test</t>
+  </si>
+  <si>
+    <t>2:00PM</t>
+  </si>
+  <si>
+    <t>5:00PM</t>
   </si>
 </sst>
 </file>
@@ -285,7 +297,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
@@ -341,6 +353,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -737,7 +752,7 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -799,15 +814,15 @@
       </c>
       <c r="C5" s="8">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D5" s="8">
         <f>IFERROR(IF(C5&lt;=WorkweekHours,C5,WorkweekHours),"")</f>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E5" s="8">
         <f>IFERROR(C5-D5, "")</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -910,18 +925,38 @@
       </c>
     </row>
     <row r="12" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="15"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="12"/>
+      <c r="B12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="19">
+        <v>43035</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="12">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="15"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="12"/>
+      <c r="B13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43036</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.5</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="12">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="15"/>

--- a/Documentation/TimeSheets/week12/Huy Nguyen Week 12Timesheet .xlsx
+++ b/Documentation/TimeSheets/week12/Huy Nguyen Week 12Timesheet .xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>Hours Worked</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>5:00PM</t>
+  </si>
+  <si>
+    <t>Create demo map and recording demo video</t>
+  </si>
+  <si>
+    <t>6:00PM</t>
   </si>
 </sst>
 </file>
@@ -752,7 +758,7 @@
   <dimension ref="B1:H20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -814,7 +820,7 @@
       </c>
       <c r="C5" s="8">
         <f>SUBTOTAL(109,TimeSheet[Hours Worked])</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="8">
         <f>IFERROR(IF(C5&lt;=WorkweekHours,C5,WorkweekHours),"")</f>
@@ -822,7 +828,7 @@
       </c>
       <c r="E5" s="8">
         <f>IFERROR(C5-D5, "")</f>
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
@@ -945,8 +951,8 @@
       <c r="B13" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="15">
-        <v>43036</v>
+      <c r="C13" s="19">
+        <v>43035</v>
       </c>
       <c r="D13" s="16">
         <v>0.5</v>
@@ -959,11 +965,21 @@
       </c>
     </row>
     <row r="14" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="15"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="12"/>
+      <c r="B14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="19">
+        <v>43035</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="12">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="2:8" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="14"/>
